--- a/Data/all_in_one_Time_sieries_data.xlsx
+++ b/Data/all_in_one_Time_sieries_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu2286\Documents\GitHub\ADS_year3_project_8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2D397D-E867-4720-8B15-4288275143C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2771AC1A-3321-40D8-B474-F8C8C23F409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="270" windowWidth="14400" windowHeight="15330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_data_together" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Size_of_waiting_list</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,16 +69,21 @@
     <t>Year</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>..</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot; &quot;#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="188" formatCode="0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,16 +146,64 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -158,8 +211,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -167,8 +259,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="188" fontId="4" fillId="4" borderId="2" applyNumberFormat="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="188" fontId="3" fillId="4" borderId="2" applyNumberFormat="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="188" fontId="3" fillId="4" borderId="2" applyNumberFormat="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="188" fontId="3" fillId="4" borderId="3">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -242,13 +391,62 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="39">
+    <cellStyle name="Bad 2" xfId="7" xr:uid="{CBAF58BB-8B69-44CF-8125-AFAAF6ED6DC1}"/>
+    <cellStyle name="CellBACode" xfId="37" xr:uid="{4C05A589-8CE6-4EAB-A38B-1CF6512E9BA2}"/>
+    <cellStyle name="CellBAName" xfId="38" xr:uid="{2E049690-7BF3-45AA-858C-086BE9F03902}"/>
+    <cellStyle name="CellMCCode" xfId="35" xr:uid="{0D84AEB3-E3BA-482B-BC04-4D4E5BB46809}"/>
+    <cellStyle name="CellMCName" xfId="36" xr:uid="{A3D67EC5-64FC-4C30-A381-A95DDBEDEAB0}"/>
+    <cellStyle name="CellNationCode" xfId="29" xr:uid="{5FE7E1A1-FC43-42C4-A6ED-5316AC567786}"/>
+    <cellStyle name="CellNationName" xfId="30" xr:uid="{A8A5079C-66F0-415A-AEE1-78F3C78BD54C}"/>
+    <cellStyle name="CellRegionCode" xfId="31" xr:uid="{48EF7D16-F4A3-475D-A325-35B3CF966563}"/>
+    <cellStyle name="CellRegionName" xfId="32" xr:uid="{0149BEB6-CB5C-49E4-91EE-5F8B5DFE84DD}"/>
+    <cellStyle name="CellUACode" xfId="33" xr:uid="{D1725E00-4615-4298-B59E-89CEA3E94047}"/>
+    <cellStyle name="CellUAName" xfId="34" xr:uid="{714CF5BB-E311-4C85-9CE2-89F716100117}"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 19" xfId="17" xr:uid="{FCB12DA7-F0D8-4438-848F-295DA4E5184C}"/>
+    <cellStyle name="Comma 2" xfId="10" xr:uid="{5CEE850C-59C3-4F22-9023-5FAF4E0784CA}"/>
+    <cellStyle name="Comma 3" xfId="6" xr:uid="{A92462D2-9115-4188-9BE0-ED8677EC10AD}"/>
+    <cellStyle name="Hyperlink 4" xfId="28" xr:uid="{57EDF248-5D2A-4A3E-BE21-CA426B733FD7}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="21" xr:uid="{ACC17D60-2002-4E63-BE7E-5CFD9E2B4339}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{898E16C2-C1D3-400C-8002-944C29B417D2}"/>
+    <cellStyle name="Normal 2 2" xfId="19" xr:uid="{8294CD45-05C5-4905-A11C-E6B381968FBA}"/>
+    <cellStyle name="Normal 2 4" xfId="14" xr:uid="{7B73FE66-2935-41CB-888E-D2572599D3F1}"/>
+    <cellStyle name="Normal 2 5" xfId="24" xr:uid="{5857EBBA-C8DC-44F2-83EA-BA878383FDB6}"/>
+    <cellStyle name="Normal 21" xfId="26" xr:uid="{48BE9C14-6B6A-4B27-82A8-89B0CC73A649}"/>
+    <cellStyle name="Normal 3" xfId="15" xr:uid="{EBB87910-0EDB-4372-B49B-FDEE7D0E2489}"/>
     <cellStyle name="Normal 3 2" xfId="4" xr:uid="{1D8AEEBA-137D-4C80-A404-CC4B50D5717F}"/>
+    <cellStyle name="Normal 3 2 2" xfId="16" xr:uid="{38DC78AE-B84A-40BC-A3C2-3E1E00DE29CF}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{2AF848F0-E314-424D-A891-383735E572E5}"/>
+    <cellStyle name="Normal 8" xfId="8" xr:uid="{E17574F9-B6F6-42F7-9D59-A5A850D3F611}"/>
+    <cellStyle name="Percent 10" xfId="23" xr:uid="{DA4583B1-AD44-4416-B9F3-90BD5EDFF338}"/>
+    <cellStyle name="Percent 11" xfId="13" xr:uid="{A49A0990-7662-43E6-A2EF-9B88609FC9C9}"/>
+    <cellStyle name="Percent 17" xfId="18" xr:uid="{468B6FCB-7529-4304-A304-ACCB47049504}"/>
+    <cellStyle name="Percent 19" xfId="27" xr:uid="{95D9E691-C2B4-45B1-BA79-76932C4AAD11}"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{9338DE83-624D-44EA-8579-A11CBBA26845}"/>
+    <cellStyle name="Percent 2 2" xfId="22" xr:uid="{C5EE1369-FF6B-4F08-8978-79C5F757BEBF}"/>
+    <cellStyle name="Percent 2 3" xfId="9" xr:uid="{72174B9C-6050-4CEF-8432-37E6B9404348}"/>
+    <cellStyle name="Percent 3" xfId="20" xr:uid="{3E011AAE-8BE5-4571-B530-EFF3675AA5AB}"/>
+    <cellStyle name="Percent 4" xfId="25" xr:uid="{DA91F97E-6EEC-4139-BFD9-4B8A186ABA7D}"/>
+    <cellStyle name="Percent 4 2 2" xfId="11" xr:uid="{98E01D8F-F12C-4DB5-B822-7A653A79CEF6}"/>
+    <cellStyle name="Percent 9 2" xfId="12" xr:uid="{919CE904-45FE-44F0-96FC-0BEE2CC45F0C}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -541,17 +739,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -795,7 +993,7 @@
         <v>1039265</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -815,7 +1013,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2003</v>
       </c>
@@ -834,8 +1032,11 @@
       <c r="H18" s="25">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2004</v>
       </c>
@@ -854,8 +1055,11 @@
       <c r="H19" s="25">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2005</v>
       </c>
@@ -874,8 +1078,11 @@
       <c r="H20" s="25">
         <v>6.81</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2006</v>
       </c>
@@ -894,8 +1101,11 @@
       <c r="H21" s="25">
         <v>7.16</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2007</v>
       </c>
@@ -914,8 +1124,11 @@
       <c r="H22" s="25">
         <v>7.21</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="29">
+        <v>366820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2008</v>
       </c>
@@ -934,8 +1147,359 @@
       <c r="H23" s="25">
         <v>6.91</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I23" s="29">
+        <v>379082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="21">
+        <v>38226</v>
+      </c>
+      <c r="C24" s="21">
+        <v>40550</v>
+      </c>
+      <c r="D24" s="2">
+        <v>88010</v>
+      </c>
+      <c r="E24" s="2">
+        <v>140990</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1763140</v>
+      </c>
+      <c r="G24" s="25">
+        <v>6.39</v>
+      </c>
+      <c r="H24" s="25">
+        <v>6.48</v>
+      </c>
+      <c r="I24" s="29">
+        <v>367755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+      <c r="B25" s="21">
+        <v>32137</v>
+      </c>
+      <c r="C25" s="21">
+        <v>43040</v>
+      </c>
+      <c r="D25" s="2">
+        <v>95560</v>
+      </c>
+      <c r="E25" s="2">
+        <v>119910</v>
+      </c>
+      <c r="F25" s="23">
+        <v>1740997</v>
+      </c>
+      <c r="G25" s="25">
+        <v>6.85</v>
+      </c>
+      <c r="H25" s="25">
+        <v>6.86</v>
+      </c>
+      <c r="I25" s="29">
+        <v>393625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2011</v>
+      </c>
+      <c r="B26" s="21">
+        <v>11267</v>
+      </c>
+      <c r="C26" s="21">
+        <v>35558</v>
+      </c>
+      <c r="D26" s="2">
+        <v>111150</v>
+      </c>
+      <c r="E26" s="2">
+        <v>107870</v>
+      </c>
+      <c r="F26" s="23">
+        <v>1813559</v>
+      </c>
+      <c r="G26" s="25">
+        <v>6.79</v>
+      </c>
+      <c r="H26" s="25">
+        <v>6.72</v>
+      </c>
+      <c r="I26" s="29">
+        <v>394484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+      <c r="B27" s="21">
+        <v>25245</v>
+      </c>
+      <c r="C27" s="21">
+        <v>28600</v>
+      </c>
+      <c r="D27" s="2">
+        <v>110820</v>
+      </c>
+      <c r="E27" s="2">
+        <v>118510</v>
+      </c>
+      <c r="F27" s="24">
+        <v>1850929</v>
+      </c>
+      <c r="G27" s="25">
+        <v>6.77</v>
+      </c>
+      <c r="H27" s="25">
+        <v>6.58</v>
+      </c>
+      <c r="I27" s="29">
+        <v>378043</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2013</v>
+      </c>
+      <c r="B28" s="21">
+        <v>32392</v>
+      </c>
+      <c r="C28" s="21">
+        <v>27606</v>
+      </c>
+      <c r="D28" s="2">
+        <v>103520</v>
+      </c>
+      <c r="E28" s="2">
+        <v>107980</v>
+      </c>
+      <c r="F28" s="24">
+        <v>1685814</v>
+      </c>
+      <c r="G28" s="25">
+        <v>6.76</v>
+      </c>
+      <c r="H28" s="25">
+        <v>6.57</v>
+      </c>
+      <c r="I28" s="29">
+        <v>396471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2014</v>
+      </c>
+      <c r="B29" s="21">
+        <v>26458</v>
+      </c>
+      <c r="C29" s="21">
+        <v>40864</v>
+      </c>
+      <c r="D29" s="2">
+        <v>135410</v>
+      </c>
+      <c r="E29" s="2">
+        <v>112330</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1368312</v>
+      </c>
+      <c r="G29" s="25">
+        <v>7.09</v>
+      </c>
+      <c r="H29" s="25">
+        <v>6.91</v>
+      </c>
+      <c r="I29" s="29">
+        <v>385343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2015</v>
+      </c>
+      <c r="B30" s="21">
+        <v>21318</v>
+      </c>
+      <c r="C30" s="21">
+        <v>17390</v>
+      </c>
+      <c r="D30" s="2">
+        <v>143390</v>
+      </c>
+      <c r="E30" s="2">
+        <v>124640</v>
+      </c>
+      <c r="F30" s="24">
+        <v>1255613</v>
+      </c>
+      <c r="G30" s="25">
+        <v>7.53</v>
+      </c>
+      <c r="H30" s="25">
+        <v>7.11</v>
+      </c>
+      <c r="I30" s="29">
+        <v>374586.30018399446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2016</v>
+      </c>
+      <c r="B31" s="21">
+        <v>29139</v>
+      </c>
+      <c r="C31" s="21">
+        <v>22885</v>
+      </c>
+      <c r="D31" s="2">
+        <v>143740</v>
+      </c>
+      <c r="E31" s="2">
+        <v>139710</v>
+      </c>
+      <c r="F31" s="24">
+        <v>1183779</v>
+      </c>
+      <c r="G31" s="25">
+        <v>7.72</v>
+      </c>
+      <c r="H31" s="25">
+        <v>7.16</v>
+      </c>
+      <c r="I31" s="29">
+        <v>334602.03519140871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="21">
+        <v>28034</v>
+      </c>
+      <c r="C32" s="21">
+        <v>25862</v>
+      </c>
+      <c r="D32" s="2">
+        <v>160280</v>
+      </c>
+      <c r="E32" s="2">
+        <v>147520</v>
+      </c>
+      <c r="F32" s="24">
+        <v>1157044</v>
+      </c>
+      <c r="G32" s="25">
+        <v>7.91</v>
+      </c>
+      <c r="H32" s="25">
+        <v>7.26</v>
+      </c>
+      <c r="I32" s="29">
+        <v>312988.65681551135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2018</v>
+      </c>
+      <c r="B33" s="3">
+        <v>30646</v>
+      </c>
+      <c r="C33" s="3">
+        <v>28716</v>
+      </c>
+      <c r="D33" s="2">
+        <v>163800</v>
+      </c>
+      <c r="E33" s="2">
+        <v>160910</v>
+      </c>
+      <c r="F33" s="24">
+        <v>1115285</v>
+      </c>
+      <c r="G33" s="25">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H33" s="25">
+        <v>7.34</v>
+      </c>
+      <c r="I33" s="31">
+        <v>313963.93613076094</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2019</v>
+      </c>
+      <c r="B34" s="3">
+        <v>35909</v>
+      </c>
+      <c r="C34" s="3">
+        <v>28226</v>
+      </c>
+      <c r="D34" s="2">
+        <v>166380</v>
+      </c>
+      <c r="E34" s="2">
+        <v>169060</v>
+      </c>
+      <c r="F34" s="24">
+        <v>1159833</v>
+      </c>
+      <c r="G34" s="25">
+        <v>7.88</v>
+      </c>
+      <c r="H34" s="25">
+        <v>7.26</v>
+      </c>
+      <c r="I34" s="30">
+        <v>125149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2020</v>
+      </c>
+      <c r="B35" s="3">
+        <v>28191</v>
+      </c>
+      <c r="C35" s="3">
+        <v>24002</v>
+      </c>
+      <c r="D35" s="4">
+        <v>148520</v>
+      </c>
+      <c r="E35" s="4">
+        <v>175330</v>
+      </c>
+      <c r="F35" s="24">
+        <v>1145501</v>
+      </c>
+      <c r="G35" s="26">
+        <v>7.84</v>
+      </c>
+      <c r="H35" s="26">
+        <v>7.15</v>
+      </c>
+      <c r="I35" s="31">
+        <v>306187.22071551759</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -953,6 +1517,9 @@
       </c>
       <c r="F36" s="24">
         <v>1187641</v>
+      </c>
+      <c r="I36" s="30">
+        <v>76458</v>
       </c>
     </row>
   </sheetData>
@@ -971,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCE4A62-17A9-4503-B101-CC128CCA6EC4}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Data/all_in_one_Time_sieries_data.xlsx
+++ b/Data/all_in_one_Time_sieries_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu2286\Documents\GitHub\ADS_year3_project_8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2771AC1A-3321-40D8-B474-F8C8C23F409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6826F75B-5C0D-447D-90C6-68EB681C0F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_data_together" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Size_of_waiting_list</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,6 +72,9 @@
   <si>
     <t>..</t>
   </si>
+  <si>
+    <t>Total Lettings</t>
+  </si>
 </sst>
 </file>
 
@@ -80,8 +83,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot; &quot;#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="188" formatCode="0000"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -178,7 +181,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,32 +195,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -280,48 +268,45 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="4" fillId="4" borderId="2" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" applyNumberFormat="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="188" fontId="3" fillId="4" borderId="2" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" applyNumberFormat="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="188" fontId="3" fillId="4" borderId="2" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" applyNumberFormat="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="188" fontId="3" fillId="4" borderId="3">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2">
       <alignment horizontal="left" indent="5"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
@@ -330,54 +315,6 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -391,19 +328,17 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -751,6 +686,8 @@
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="41.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
@@ -775,51 +712,54 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
+      <c r="I1" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="F2" s="22">
+      <c r="F2" s="5">
         <v>1289492</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1988</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="5">
         <v>1273453</v>
       </c>
     </row>
@@ -827,7 +767,7 @@
       <c r="A4">
         <v>1989</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="5">
         <v>1251690</v>
       </c>
     </row>
@@ -835,7 +775,7 @@
       <c r="A5">
         <v>1990</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="5">
         <v>1267221</v>
       </c>
     </row>
@@ -843,13 +783,13 @@
       <c r="A6">
         <v>1991</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>128620</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>160030</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="5">
         <v>1292742</v>
       </c>
     </row>
@@ -857,13 +797,13 @@
       <c r="A7">
         <v>1992</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>137940</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>155130</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="5">
         <v>1304759</v>
       </c>
     </row>
@@ -871,13 +811,13 @@
       <c r="A8">
         <v>1993</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>133740</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>142460</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="5">
         <v>1214236</v>
       </c>
     </row>
@@ -885,13 +825,13 @@
       <c r="A9">
         <v>1994</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>154080</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>147710</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="5">
         <v>1132337</v>
       </c>
     </row>
@@ -899,13 +839,13 @@
       <c r="A10">
         <v>1995</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>159780</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>157970</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="5">
         <v>1087135</v>
       </c>
     </row>
@@ -913,13 +853,13 @@
       <c r="A11">
         <v>1996</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>132990</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>154600</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="5">
         <v>1062179</v>
       </c>
     </row>
@@ -927,13 +867,13 @@
       <c r="A12">
         <v>1997</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>153240</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>146250</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="5">
         <v>1021664</v>
       </c>
     </row>
@@ -941,13 +881,13 @@
       <c r="A13">
         <v>1998</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>156170</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>149560</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="6">
         <v>1020229</v>
       </c>
     </row>
@@ -955,13 +895,13 @@
       <c r="A14">
         <v>1999</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>147190</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>140260</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="6">
         <v>1036751</v>
       </c>
     </row>
@@ -969,13 +909,13 @@
       <c r="A15">
         <v>2000</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>149730</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>141800</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="6">
         <v>1038720</v>
       </c>
     </row>
@@ -983,13 +923,13 @@
       <c r="A16">
         <v>2001</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>140490</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>133260</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="6">
         <v>1039265</v>
       </c>
     </row>
@@ -997,19 +937,19 @@
       <c r="A17">
         <v>2002</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>149010</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>129870</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="6">
         <v>1093342</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="8">
         <v>5.1100000000000003</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="8">
         <v>4.51</v>
       </c>
     </row>
@@ -1017,22 +957,22 @@
       <c r="A18">
         <v>2003</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>153070</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>137740</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="6">
         <v>1263931</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="8">
         <v>5.91</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="8">
         <v>5.2</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1040,22 +980,22 @@
       <c r="A19">
         <v>2004</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>162330</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>143960</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="6">
         <v>1434874</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="8">
         <v>6.6</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="8">
         <v>6.25</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1063,22 +1003,22 @@
       <c r="A20">
         <v>2005</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>174310</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>155890</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="6">
         <v>1543337</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="8">
         <v>6.78</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="8">
         <v>6.81</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1086,22 +1026,22 @@
       <c r="A21">
         <v>2006</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>183360</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>163400</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="6">
         <v>1634301</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="8">
         <v>6.95</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="8">
         <v>7.16</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1109,22 +1049,22 @@
       <c r="A22">
         <v>2007</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>170320</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>167680</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="6">
         <v>1674421</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="8">
         <v>7.14</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="8">
         <v>7.21</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="13">
         <v>366820</v>
       </c>
     </row>
@@ -1132,22 +1072,22 @@
       <c r="A23">
         <v>2008</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>170440</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>170610</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="6">
         <v>1769939</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="8">
         <v>6.96</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="8">
         <v>6.91</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="13">
         <v>379082</v>
       </c>
     </row>
@@ -1155,28 +1095,28 @@
       <c r="A24">
         <v>2009</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="4">
         <v>38226</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="4">
         <v>40550</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>88010</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>140990</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="6">
         <v>1763140</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="8">
         <v>6.39</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="8">
         <v>6.48</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="13">
         <v>367755</v>
       </c>
     </row>
@@ -1184,28 +1124,28 @@
       <c r="A25">
         <v>2010</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="4">
         <v>32137</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="4">
         <v>43040</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>95560</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>119910</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="6">
         <v>1740997</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="8">
         <v>6.85</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="8">
         <v>6.86</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="13">
         <v>393625</v>
       </c>
     </row>
@@ -1213,28 +1153,28 @@
       <c r="A26">
         <v>2011</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="4">
         <v>11267</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="4">
         <v>35558</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>111150</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>107870</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="6">
         <v>1813559</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="8">
         <v>6.79</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="8">
         <v>6.72</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="13">
         <v>394484</v>
       </c>
     </row>
@@ -1242,28 +1182,28 @@
       <c r="A27">
         <v>2012</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="4">
         <v>25245</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="4">
         <v>28600</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>110820</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>118510</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="7">
         <v>1850929</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="8">
         <v>6.77</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="8">
         <v>6.58</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="13">
         <v>378043</v>
       </c>
     </row>
@@ -1271,28 +1211,28 @@
       <c r="A28">
         <v>2013</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="4">
         <v>32392</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="4">
         <v>27606</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>103520</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>107980</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="7">
         <v>1685814</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="8">
         <v>6.76</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="8">
         <v>6.57</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="13">
         <v>396471</v>
       </c>
     </row>
@@ -1300,28 +1240,28 @@
       <c r="A29">
         <v>2014</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="4">
         <v>26458</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="4">
         <v>40864</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>135410</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>112330</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="7">
         <v>1368312</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="8">
         <v>7.09</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="8">
         <v>6.91</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="13">
         <v>385343</v>
       </c>
     </row>
@@ -1329,28 +1269,28 @@
       <c r="A30">
         <v>2015</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="4">
         <v>21318</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="4">
         <v>17390</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>143390</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>124640</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="7">
         <v>1255613</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="8">
         <v>7.53</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="8">
         <v>7.11</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="13">
         <v>374586.30018399446</v>
       </c>
     </row>
@@ -1358,28 +1298,28 @@
       <c r="A31">
         <v>2016</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="4">
         <v>29139</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="4">
         <v>22885</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>143740</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>139710</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="7">
         <v>1183779</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="8">
         <v>7.72</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="8">
         <v>7.16</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="13">
         <v>334602.03519140871</v>
       </c>
     </row>
@@ -1387,57 +1327,57 @@
       <c r="A32">
         <v>2017</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="4">
         <v>28034</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="4">
         <v>25862</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>160280</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>147520</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="7">
         <v>1157044</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="8">
         <v>7.91</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="8">
         <v>7.26</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="13">
         <v>312988.65681551135</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2018</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>30646</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>28716</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>163800</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>160910</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="7">
         <v>1115285</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="8">
         <v>8.0399999999999991</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="8">
         <v>7.34</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="13">
         <v>313963.93613076094</v>
       </c>
     </row>
@@ -1445,57 +1385,57 @@
       <c r="A34">
         <v>2019</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>35909</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>28226</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>166380</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>169060</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="7">
         <v>1159833</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="8">
         <v>7.88</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="8">
         <v>7.26</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="14">
         <v>125149</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2020</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>28191</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>24002</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>148520</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>175330</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="7">
         <v>1145501</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="9">
         <v>7.84</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="9">
         <v>7.15</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="13">
         <v>306187.22071551759</v>
       </c>
     </row>
@@ -1503,22 +1443,22 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>9255</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>10007</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>140200</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>155950</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="7">
         <v>1187641</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="14">
         <v>76458</v>
       </c>
     </row>
@@ -1536,15 +1476,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCE4A62-17A9-4503-B101-CC128CCA6EC4}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="A2:H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1569,317 +1509,356 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2009</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>38226</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>40550</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>88010</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>140990</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="6">
         <v>1763140</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="8">
         <v>6.39</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="8">
         <v>6.48</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="14">
+        <v>367755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2010</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>32137</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>43040</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>95560</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>119910</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="6">
         <v>1740997</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="8">
         <v>6.85</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="8">
         <v>6.86</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="14">
+        <v>393625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2011</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="4">
         <v>11267</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>35558</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>111150</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>107870</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="6">
         <v>1813559</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="8">
         <v>6.79</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="8">
         <v>6.72</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="14">
+        <v>394484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2012</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="4">
         <v>25245</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="4">
         <v>28600</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>110820</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>118510</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="7">
         <v>1850929</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="8">
         <v>6.77</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="8">
         <v>6.58</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="14">
+        <v>378043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2013</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="4">
         <v>32392</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="4">
         <v>27606</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>103520</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>107980</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="7">
         <v>1685814</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="8">
         <v>6.76</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="8">
         <v>6.57</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="14">
+        <v>396471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2014</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="4">
         <v>26458</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="4">
         <v>40864</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>135410</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>112330</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="7">
         <v>1368312</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="8">
         <v>7.09</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="8">
         <v>6.91</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="14">
+        <v>385343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2015</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="4">
         <v>21318</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="4">
         <v>17390</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>143390</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>124640</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="7">
         <v>1255613</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="8">
         <v>7.53</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="8">
         <v>7.11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="14">
+        <v>374586.30018399446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2016</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="4">
         <v>29139</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="4">
         <v>22885</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>143740</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>139710</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="7">
         <v>1183779</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="8">
         <v>7.72</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="8">
         <v>7.16</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="14">
+        <v>334602.03519140871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2017</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="4">
         <v>28034</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="4">
         <v>25862</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>160280</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>147520</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="7">
         <v>1157044</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="8">
         <v>7.91</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="8">
         <v>7.26</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="14">
+        <v>312988.65681551135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2018</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>30646</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>28716</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>163800</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>160910</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="7">
         <v>1115285</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="8">
         <v>8.0399999999999991</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="8">
         <v>7.34</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="14">
+        <v>313963.93613076094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2019</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>35909</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>28226</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>166380</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>169060</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="7">
         <v>1159833</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="8">
         <v>7.88</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="8">
         <v>7.26</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="14">
+        <v>125149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2020</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>28191</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>24002</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>148520</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>175330</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="7">
         <v>1145501</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="9">
         <v>7.84</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="9">
         <v>7.15</v>
+      </c>
+      <c r="I13" s="14">
+        <v>306187.22071551759</v>
       </c>
     </row>
   </sheetData>
